--- a/Convergence.xlsx
+++ b/Convergence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dewimaharani/cis-510/Poisson2D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98CC833-08BC-B440-BB56-D803D8617468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0ABAB1-7E0F-214E-ADE1-8049E6392305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1960" windowWidth="25440" windowHeight="15000" xr2:uid="{642A3304-FE3D-D94A-9794-00FF20C36B8C}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="25440" windowHeight="15000" xr2:uid="{642A3304-FE3D-D94A-9794-00FF20C36B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Delta x</t>
   </si>
@@ -39,13 +39,19 @@
     <t>x</t>
   </si>
   <si>
-    <t>Initial Vector</t>
-  </si>
-  <si>
     <t>Iterations Conv</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Dense Time</t>
+  </si>
+  <si>
+    <t>Sparse Time</t>
+  </si>
+  <si>
+    <t>Dense Time (s)</t>
+  </si>
+  <si>
+    <t>Sparse Time (s)</t>
   </si>
 </sst>
 </file>
@@ -105,6 +111,1058 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dense vs. Sparse Matrix Runtimes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dense Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$14:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$14:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.20208400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21639900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25908900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78520699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34A6-EB42-9644-3DBAC2421E8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sparse Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$14:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$14:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.38870799220000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39649894070000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41483617969999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42764483399999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43129788260000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42608807409999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44800583240000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34A6-EB42-9644-3DBAC2421E8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1880660576"/>
+        <c:axId val="1880132864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1880660576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1880132864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1880132864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1880660576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3DC002-5948-9847-8407-5A2CB7767B9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,20 +1462,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB2E752-0DE2-2C42-A8E8-5356085220DD}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,17 +1490,26 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -453,17 +1522,26 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0.20208400000000001</v>
       </c>
+      <c r="H2" s="1">
+        <v>0.38870799220000002</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.1327084812902998E-3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -478,17 +1556,28 @@
         <f>LOG(C3, 2)</f>
         <v>2.0053492509187523</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
         <v>37</v>
       </c>
       <c r="G3" s="1">
         <v>0.21639900000000001</v>
       </c>
+      <c r="H3" s="1">
+        <v>0.39649894070000002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0293533902626299E-3</v>
+      </c>
+      <c r="J3">
+        <f>I2/I3</f>
+        <v>4.0148587651087233</v>
+      </c>
+      <c r="K3">
+        <f>LOG(J3, 2)</f>
+        <v>2.0053492374409405</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -503,39 +1592,210 @@
         <f>LOG(C4, 2)</f>
         <v>2.0013355036510054</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
         <v>81</v>
       </c>
       <c r="G4" s="1">
         <v>0.25908900000000001</v>
       </c>
+      <c r="H4" s="1">
+        <v>0.41483617969999997</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.57100240386538E-4</v>
+      </c>
+      <c r="J4">
+        <f>I3/I4</f>
+        <v>4.003704503407099</v>
+      </c>
+      <c r="K4">
+        <f>LOG(J4, 2)</f>
+        <v>2.0013354988490017</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
         <v>174</v>
       </c>
       <c r="G5" s="1">
         <v>0.78520699999999999</v>
       </c>
+      <c r="H5" s="1">
+        <v>0.42764483399999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="G6" s="1">
         <v>1633.6569360000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.43129788260000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.42608807409999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.44800583240000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.20208400000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.38870799220000002</v>
+      </c>
+      <c r="L14">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.20208400000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.38870799220000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.21639900000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.39649894070000002</v>
+      </c>
+      <c r="L15">
+        <v>0.05</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.21639900000000001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.39649894070000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.25908900000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.41483617969999997</v>
+      </c>
+      <c r="L16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.25908900000000001</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.41483617969999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.78520699999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.42764483399999997</v>
+      </c>
+      <c r="L17">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.78520699999999999</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.42764483399999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1633.6569360000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.43129788260000002</v>
+      </c>
+      <c r="L18">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <v>0.43129788260000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.42608807409999999</v>
+      </c>
+      <c r="L19">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.42608807409999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.44800583240000003</v>
+      </c>
+      <c r="L20">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.44800583240000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Convergence.xlsx
+++ b/Convergence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dewimaharani/cis-510/Poisson2D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0ABAB1-7E0F-214E-ADE1-8049E6392305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62557D39-0DFF-3A45-A2D0-F26C09E6CBA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="25440" windowHeight="15000" xr2:uid="{642A3304-FE3D-D94A-9794-00FF20C36B8C}"/>
   </bookViews>
